--- a/01-Lesson-Plans/01-Excel/2/Activities/10-Ins_Lookups/Solved/Lookups.xlsx
+++ b/01-Lesson-Plans/01-Excel/2/Activities/10-Ins_Lookups/Solved/Lookups.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/11-Ins_Lookups/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8512a5b4b9cbd9d/UCB/temp/UCB-VIRT-DATA-PT-08-2023-U-LOLC/01-Lesson-Plans/01-Excel/2/Activities/10-Ins_Lookups/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D997293-CC87-804D-AF85-DAEC061455EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{9D997293-CC87-804D-AF85-DAEC061455EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A05B5832-E020-4DA1-87AE-631EF597581C}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="706" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VLookup" sheetId="1" r:id="rId1"/>
-    <sheet name="HLookup" sheetId="2" r:id="rId2"/>
+    <sheet name="Employees" sheetId="3" r:id="rId2"/>
+    <sheet name="Departments" sheetId="4" r:id="rId3"/>
+    <sheet name="HLookup" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +67,21 @@
   </si>
   <si>
     <t>Gabriella Russo</t>
+  </si>
+  <si>
+    <t>Deprtment</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Slaes</t>
+  </si>
+  <si>
+    <t>Markiting</t>
   </si>
 </sst>
 </file>
@@ -185,21 +202,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -547,164 +558,137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>104</v>
       </c>
-      <c r="B2" s="5" t="str">
-        <f>VLOOKUP(A2,$E$4:$G$7,3,FALSE)</f>
+      <c r="B2" s="4" t="str">
+        <f>VLOOKUP(A2,Employees!$A$2:$C$5,3,FALSE)</f>
         <v>Data Engineer</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>103</v>
       </c>
-      <c r="B3" s="10" t="str">
-        <f t="shared" ref="B3:B11" si="0">VLOOKUP(A3,$E$4:$G$7,3,FALSE)</f>
+      <c r="B3" s="4" t="str">
+        <f>VLOOKUP(A3,Employees!$A$2:$C$5,3,FALSE)</f>
         <v>Software Engineer</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>104</v>
       </c>
-      <c r="B4" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="B4" s="4" t="str">
+        <f>VLOOKUP(A4,Employees!$A$2:$C$5,3,FALSE)</f>
         <v>Data Engineer</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>101</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="B5" s="4" t="str">
+        <f>VLOOKUP(A5,Employees!$A$2:$C$5,3,FALSE)</f>
+        <v>Project Manager</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>VLOOKUP(A6,Employees!$A$2:$C$5,3,FALSE)</f>
+        <v>Data Analyst</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f>VLOOKUP(A7,Employees!$A$2:$C$5,3,FALSE)</f>
+        <v>Software Engineer</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>101</v>
       </c>
-      <c r="B5" s="10" t="str">
-        <f t="shared" si="0"/>
+      <c r="B8" s="4" t="str">
+        <f>VLOOKUP(A8,Employees!$A$2:$C$5,3,FALSE)</f>
         <v>Project Manager</v>
       </c>
-      <c r="E5">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f>VLOOKUP(A9,Employees!$A$2:$C$5,3,FALSE)</f>
+        <v>Data Engineer</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f>VLOOKUP(A10,Employees!$A$2:$C$5,3,FALSE)</f>
+        <v>Project Manager</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>102</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="B11" s="4" t="str">
+        <f>VLOOKUP(A11,Employees!$A$2:$C$5,3)</f>
+        <v>Data Analyst</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>101</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,Employees!$A$2:$C$5,3)</f>
+        <v>Project Manager</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>102</v>
       </c>
-      <c r="B6" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Data Analyst</v>
-      </c>
-      <c r="E6">
-        <v>103</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>103</v>
-      </c>
-      <c r="B7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Software Engineer</v>
-      </c>
-      <c r="E7">
-        <v>104</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>101</v>
-      </c>
-      <c r="B8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Project Manager</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>104</v>
-      </c>
-      <c r="B9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Data Engineer</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>101</v>
-      </c>
-      <c r="B10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Project Manager</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>102</v>
-      </c>
-      <c r="B11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Data Analyst</v>
+      <c r="B16" t="str">
+        <f>VLOOKUP(A16, Departments!A2:B5, 2)</f>
+        <v>Hardware</v>
       </c>
     </row>
   </sheetData>
@@ -714,169 +698,329 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A70BD-08DA-42DB-83FE-6B8C79E34080}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF5B1AD-0E7D-4335-80C4-99556A37F360}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>104</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="4" t="str">
         <f>HLOOKUP(A2,$E$4:$H$6,3,FALSE)</f>
         <v>Data Engineer</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>103</v>
       </c>
-      <c r="B3" s="10" t="str">
+      <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B11" si="0">HLOOKUP(A3,$E$4:$H$6,3,FALSE)</f>
         <v>Software Engineer</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>104</v>
       </c>
-      <c r="B4" s="10" t="str">
+      <c r="B4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Data Engineer</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>101</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="8">
         <v>102</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="8">
         <v>103</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="8">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>101</v>
       </c>
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Project Manager</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>102</v>
       </c>
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Data Analyst</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>103</v>
       </c>
-      <c r="B7" s="10" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Software Engineer</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>101</v>
       </c>
-      <c r="B8" s="10" t="str">
+      <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Project Manager</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>104</v>
       </c>
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Data Engineer</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>101</v>
       </c>
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Project Manager</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>102</v>
       </c>
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Data Analyst</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" t="str">
+        <f>HLOOKUP(A14,$E$4:$H$6, 3)</f>
+        <v>Software Engineer</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="str">
+        <f>HLOOKUP(C15,$E$4:$H$6, 3)</f>
+        <v>Software Engineer</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
+        <f>HLOOKUP(L18,E4:H6, 3)</f>
+        <v>Project Manager</v>
       </c>
     </row>
   </sheetData>
